--- a/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Cuentas por Pagar/Otras cuentas por pagar/Auditoria de otras cuentas por pagar.xlsx
+++ b/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Cuentas por Pagar/Otras cuentas por pagar/Auditoria de otras cuentas por pagar.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase II - Ejecucion\6000 Pruebas de Pasivos y Patrimonio\6200 Cuentas por Pagar\Otras cuentas por pagar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70654BCD-FCAA-40EB-82F5-816DB2BBB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F6234-B2EC-44E4-816B-D3D8C8DAC4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5418CD9-7BFD-4447-B8CB-6EB440F8DF36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen por auxiliar" sheetId="4" r:id="rId1"/>
     <sheet name="Mayor 2021" sheetId="2" r:id="rId2"/>
     <sheet name="Mayor 2020" sheetId="3" r:id="rId3"/>
-    <sheet name="NC" sheetId="4" r:id="rId4"/>
+    <sheet name="Resumen" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Mayor 2020'!$A$1:$I$877</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137" uniqueCount="1083">
   <si>
     <t>GRAFIMPAC S.A.</t>
   </si>
@@ -3178,6 +3178,123 @@
   </si>
   <si>
     <t>Registro costo de produccion US$60k y US$80k</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Ingresos y egresos de bodega</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Provisiones varias</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>Danios y multas</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>Proveedores varios</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Servicio de manufactura</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Participaciones resagadas</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Decimos resagados</t>
+  </si>
+  <si>
+    <t>SRI por devolver</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Por liquidar</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Jose Orbea</t>
+  </si>
+  <si>
+    <t>Diners Club</t>
+  </si>
+  <si>
+    <t>Registro anulado por el usuario</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>Otros descuentos al personal</t>
+  </si>
+  <si>
+    <t>Consumos de  inventarios importados y cuyo costo no ha sido liquidado hasta fin de mes, su saldo debe quedar en cero al final del anio</t>
+  </si>
+  <si>
+    <t>Costo de personal eventual que se provisiona mensualmente y posteriormente se cruza con el pago. Debe  quedar en cero al final del anio</t>
+  </si>
+  <si>
+    <t>DETALLE POR CODIGO DE AUXILIAR, OTRAS CUENTAS POR PAGAR</t>
+  </si>
+  <si>
+    <t>Al 31 de diciembre del 2020</t>
+  </si>
+  <si>
+    <t>n/c de proveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularizacion n/c </t>
+  </si>
+  <si>
+    <t>Baja inventarios y regularizacion PT</t>
+  </si>
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Cheques anulados</t>
+  </si>
+  <si>
+    <t>Costo de produccion</t>
+  </si>
+  <si>
+    <t>Otros conceptos</t>
+  </si>
+  <si>
+    <t>Incremento del periodo:</t>
   </si>
 </sst>
 </file>
@@ -3190,7 +3307,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3251,6 +3368,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3272,7 +3397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3381,12 +3506,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -3434,6 +3616,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3748,446 +3951,499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D1EE49-149E-461C-BB6F-6C712F2B37EB}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278A2F5A-BF87-4997-BA5A-4EB87743B6EB}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="46" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E5" s="40">
+        <v>43800</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>1030</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="G5" s="40">
+        <v>44166</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>1030</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28">
-        <v>1263960</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29">
-        <f>+E28</f>
-        <v>3276346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="14"/>
+      <c r="I5" s="40">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="41" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D6" s="41"/>
       <c r="E6" s="13">
-        <v>-400105</v>
+        <v>-2465</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13">
-        <v>-192249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13">
-        <v>32065</v>
-      </c>
+        <v>-26605</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13">
-        <v>9450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="13">
-        <v>1161533</v>
+        <v>753</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13">
-        <v>316236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13">
-        <v>2110046</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13">
+        <v>-26451</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D10" s="41"/>
       <c r="E10" s="13">
-        <v>-2134273</v>
+        <v>30141</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13">
-        <f>-175866-666</f>
-        <v>-176532</v>
-      </c>
+        <v>59988</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
+        <v>45533</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13">
-        <f>-125731</f>
-        <v>-125731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="13">
-        <f>-2357-3583</f>
-        <v>-5940</v>
+        <v>48548</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13">
-        <f>-1703-1214-1765-1152</f>
-        <v>-5834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="14"/>
+        <v>64978</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D13" s="41"/>
       <c r="E13" s="13">
-        <v>-31112</v>
+        <v>1154868</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13">
-        <v>-247800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>1035</v>
-      </c>
+        <v>2923566</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <v>3403617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="42"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13">
-        <v>4710</v>
-      </c>
+      <c r="D14" s="49" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>1034</v>
-      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13">
-        <v>5376</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>1024</v>
-      </c>
+      <c r="D15" s="41" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
+        <v>1168701</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="42"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13">
-        <v>1454789</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
-        <v>656541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D17" s="13">
-        <v>729723</v>
-      </c>
-      <c r="E17" s="14"/>
+      <c r="D16" s="41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
+        <v>96852</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="41" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E17" s="13"/>
       <c r="F17" s="13">
-        <f>80000+95000+80000</f>
-        <v>255000</v>
+        <v>137944</v>
       </c>
       <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1224</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="42"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="41" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
+        <v>-391927</v>
+      </c>
       <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D19" s="13">
-        <v>524542</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="41" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="13">
-        <f>313362-77912</f>
-        <v>235450</v>
+        <v>32065</v>
       </c>
       <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D20" s="13">
-        <v>96851</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
+        <v>694631</v>
+      </c>
       <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D21" s="13">
-        <v>14630</v>
-      </c>
-      <c r="E21" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="41" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="13">
-        <v>1875</v>
+        <f>+G13-E13-1738266</f>
+        <v>30432</v>
       </c>
       <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D22" s="13">
-        <v>296</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13">
-        <v>245</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D23" s="13">
-        <v>5290</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="42" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="13">
+        <v>2808</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
+        <v>43191</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13">
+        <v>175806</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="13">
+        <v>27</v>
+      </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13">
-        <v>83270</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D25" s="13">
-        <f>68092+75110</f>
-        <v>143202</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13">
-        <v>77912</v>
-      </c>
+      <c r="G23" s="13">
+        <v>195377</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13">
+        <v>-4562</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="13">
+        <v>1687</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
+        <v>1687</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="42" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D26" s="13">
-        <f>-1515758+1454789</f>
-        <v>-60969</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13">
-        <f>656541-653752</f>
-        <v>2789</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="17" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13">
-        <f>-3279807+3266926+4710</f>
-        <v>-8171</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13">
-        <f>-3678908+3667243+237</f>
-        <v>-11428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34">
-        <f>SUM(E5:E27)</f>
-        <v>3276346</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34">
-        <f>SUM(G5:G27)</f>
-        <v>3677137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="41" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="13">
+        <v>3988</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
+        <v>3988</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="39">
+        <f>SUM(E6:E26)</f>
+        <v>1240355</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39">
+        <f>SUM(G6:G26)</f>
+        <v>3266923</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39">
+        <f>SUM(I6:I26)</f>
+        <v>3667396</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
+        <f>3667243-I27</f>
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40859,13 +41115,449 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278A2F5A-BF87-4997-BA5A-4EB87743B6EB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D1EE49-149E-461C-BB6F-6C712F2B37EB}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>1263960</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29">
+        <f>+E28</f>
+        <v>3276346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13">
+        <v>-400105</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>-192249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13">
+        <v>32065</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13">
+        <v>1161533</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>316236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13">
+        <v>2110046</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13">
+        <v>-2134273</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13">
+        <f>-175866-666</f>
+        <v>-176532</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
+        <f>-125731</f>
+        <v>-125731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13">
+        <f>-2357-3583</f>
+        <v>-5940</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <f>-1703-1214-1765-1152</f>
+        <v>-5834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13">
+        <v>-31112</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
+        <v>-247800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13">
+        <v>4710</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13">
+        <v>5376</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13">
+        <v>1454789</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>656541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D17" s="13">
+        <v>729723</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13">
+        <f>80000+95000+80000</f>
+        <v>255000</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1224</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D19" s="13">
+        <v>524542</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13">
+        <f>313362-77912</f>
+        <v>235450</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D20" s="13">
+        <v>96851</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D21" s="13">
+        <v>14630</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13">
+        <v>1875</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D22" s="13">
+        <v>296</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13">
+        <v>245</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D23" s="13">
+        <v>5290</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13">
+        <v>83270</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D25" s="13">
+        <f>68092+75110</f>
+        <v>143202</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13">
+        <v>77912</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D26" s="13">
+        <f>-1515758+1454789</f>
+        <v>-60969</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13">
+        <f>656541-653752</f>
+        <v>2789</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13">
+        <f>-3279807+3266926+4710</f>
+        <v>-8171</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
+        <f>-3678908+3667243+237</f>
+        <v>-11428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34">
+        <f>SUM(E5:E27)</f>
+        <v>3276346</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34">
+        <f>SUM(G5:G27)</f>
+        <v>3677137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Cuentas por Pagar/Otras cuentas por pagar/Auditoria de otras cuentas por pagar.xlsx
+++ b/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Cuentas por Pagar/Otras cuentas por pagar/Auditoria de otras cuentas por pagar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase II - Ejecucion\6000 Pruebas de Pasivos y Patrimonio\6200 Cuentas por Pagar\Otras cuentas por pagar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F6234-B2EC-44E4-816B-D3D8C8DAC4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82B28D5-72AB-410D-A5AC-B2837E964377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5418CD9-7BFD-4447-B8CB-6EB440F8DF36}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="1083">
   <si>
     <t>GRAFIMPAC S.A.</t>
   </si>
@@ -3952,10 +3952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278A2F5A-BF87-4997-BA5A-4EB87743B6EB}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,30 +3964,31 @@
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>1044</v>
       </c>
@@ -3995,39 +3996,43 @@
       <c r="D5" s="46" t="s">
         <v>1045</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="46" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F5" s="40">
         <v>43800</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="40" t="s">
         <v>1030</v>
       </c>
-      <c r="G5" s="40">
+      <c r="H5" s="40">
         <v>44166</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>1030</v>
       </c>
-      <c r="I5" s="40">
+      <c r="J5" s="40">
         <v>44348</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="41" t="s">
         <v>1046</v>
       </c>
       <c r="D6" s="41"/>
-      <c r="E6" s="13">
+      <c r="E6" s="41"/>
+      <c r="F6" s="13">
         <v>-2465</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>-26605</v>
       </c>
-      <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>1064</v>
       </c>
@@ -4035,15 +4040,16 @@
         <v>1065</v>
       </c>
       <c r="D7" s="41"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
         <v>-600</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>1049</v>
       </c>
@@ -4051,19 +4057,20 @@
         <v>1047</v>
       </c>
       <c r="D8" s="41"/>
-      <c r="E8" s="13">
+      <c r="E8" s="41"/>
+      <c r="F8" s="13">
         <v>753</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
         <v>753</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
         <v>753</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
         <v>1068</v>
       </c>
@@ -4071,18 +4078,19 @@
         <v>1066</v>
       </c>
       <c r="D9" s="41"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="13">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
         <v>-26451</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
         <v>1048</v>
       </c>
@@ -4090,22 +4098,23 @@
         <v>1050</v>
       </c>
       <c r="D10" s="41"/>
-      <c r="E10" s="13">
+      <c r="E10" s="41"/>
+      <c r="F10" s="13">
         <v>30141</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <v>59988</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13">
         <v>45533</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="K10" s="47" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
         <v>1069</v>
       </c>
@@ -4113,15 +4122,16 @@
         <v>1070</v>
       </c>
       <c r="D11" s="41"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
         <v>1051</v>
       </c>
@@ -4129,19 +4139,20 @@
         <v>1052</v>
       </c>
       <c r="D12" s="41"/>
-      <c r="E12" s="13">
+      <c r="E12" s="41"/>
+      <c r="F12" s="13">
         <v>48548</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
         <v>64978</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
         <v>67600</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
         <v>1053</v>
       </c>
@@ -4149,130 +4160,139 @@
         <v>1054</v>
       </c>
       <c r="D13" s="41"/>
-      <c r="E13" s="13">
+      <c r="E13" s="41"/>
+      <c r="F13" s="13">
         <v>1154868</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <v>2923566</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
         <v>3403617</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="17"/>
       <c r="D14" s="49" t="s">
         <v>1082</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="17"/>
       <c r="D15" s="41" t="s">
         <v>1075</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13">
+      <c r="E15" s="41"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
         <v>1168701</v>
       </c>
-      <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
       <c r="C16" s="17"/>
       <c r="D16" s="41" t="s">
         <v>1076</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
+      <c r="E16" s="41"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
         <v>96852</v>
       </c>
-      <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="17"/>
       <c r="D17" s="41" t="s">
         <v>1077</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
+      <c r="E17" s="41"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <v>137944</v>
       </c>
-      <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="17"/>
       <c r="D18" s="41" t="s">
         <v>1078</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
+      <c r="E18" s="41"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
         <v>-391927</v>
       </c>
-      <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
       <c r="C19" s="17"/>
       <c r="D19" s="41" t="s">
         <v>1079</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13">
+      <c r="E19" s="41"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
         <v>32065</v>
       </c>
-      <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="17"/>
       <c r="D20" s="41" t="s">
         <v>1080</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
+      <c r="E20" s="41"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <v>694631</v>
       </c>
-      <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="17"/>
       <c r="D21" s="41" t="s">
         <v>1081</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13">
-        <f>+G13-E13-1738266</f>
+      <c r="E21" s="41"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <f>+H13-F13-1738266</f>
         <v>30432</v>
       </c>
-      <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
         <v>1062</v>
       </c>
@@ -4280,19 +4300,20 @@
         <v>1063</v>
       </c>
       <c r="D22" s="41"/>
-      <c r="E22" s="13">
+      <c r="E22" s="41"/>
+      <c r="F22" s="13">
         <v>2808</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13">
         <v>43191</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
         <v>175806</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
         <v>1055</v>
       </c>
@@ -4300,22 +4321,23 @@
         <v>1056</v>
       </c>
       <c r="D23" s="41"/>
-      <c r="E23" s="13">
+      <c r="E23" s="41"/>
+      <c r="F23" s="13">
         <v>27</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13">
         <v>195377</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
         <v>-4562</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="K23" s="47" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
         <v>1057</v>
       </c>
@@ -4323,19 +4345,20 @@
         <v>1058</v>
       </c>
       <c r="D24" s="41"/>
-      <c r="E24" s="13">
+      <c r="E24" s="41"/>
+      <c r="F24" s="13">
         <v>1687</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13">
         <v>1687</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
         <v>1687</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
         <v>1059</v>
       </c>
@@ -4343,107 +4366,110 @@
         <v>1060</v>
       </c>
       <c r="D25" s="41"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="41" t="s">
         <v>1061</v>
       </c>
       <c r="D26" s="41"/>
-      <c r="E26" s="13">
+      <c r="E26" s="41"/>
+      <c r="F26" s="13">
         <v>3988</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13">
         <v>3988</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13">
         <v>3988</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="39">
-        <f>SUM(E6:E26)</f>
+      <c r="E27" s="44"/>
+      <c r="F27" s="39">
+        <f>SUM(F6:F26)</f>
         <v>1240355</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39">
-        <f>SUM(G6:G26)</f>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39">
+        <f>SUM(H6:H26)</f>
         <v>3266923</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39">
-        <f>SUM(I6:I26)</f>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39">
+        <f>SUM(J6:J26)</f>
         <v>3667396</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <f>3667243-I27</f>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
+        <f>3667243-J27</f>
         <v>-153</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
